--- a/results/FrequencyTables/25752527_gLTR-T2.xlsx
+++ b/results/FrequencyTables/25752527_gLTR-T2.xlsx
@@ -465,46 +465,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.98989898989899</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="F2">
-        <v>0.0101010101010101</v>
+        <v>0.0188536953242836</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00226244343891403</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="N2">
-        <v>0.818181818181818</v>
+        <v>0.847662141779789</v>
       </c>
       <c r="O2">
-        <v>0.717171717171717</v>
+        <v>0.655354449472097</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -513,25 +513,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.97979797979798</v>
+        <v>0.944947209653092</v>
       </c>
       <c r="S2">
-        <v>0.0202020202020202</v>
+        <v>0.00829562594268477</v>
       </c>
       <c r="T2">
-        <v>0.0202020202020202</v>
+        <v>0.0248868778280543</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0165912518853695</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.994720965309201</v>
       </c>
       <c r="W2">
-        <v>0.98989898989899</v>
+        <v>0.960030165912519</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,55 +539,55 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00226244343891403</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="D3">
-        <v>0.96969696969697</v>
+        <v>0.953996983408748</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00754147812971342</v>
       </c>
       <c r="F3">
-        <v>0.98989898989899</v>
+        <v>0.978883861236802</v>
       </c>
       <c r="G3">
-        <v>0.0101010101010101</v>
+        <v>0.0188536953242836</v>
       </c>
       <c r="H3">
-        <v>0.98989898989899</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I3">
-        <v>0.0101010101010101</v>
+        <v>0.0188536953242836</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00678733031674208</v>
       </c>
       <c r="L3">
-        <v>0.97979797979798</v>
+        <v>0.953242835595777</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00226244343891403</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00226244343891403</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.990950226244344</v>
       </c>
       <c r="Q3">
-        <v>0.0202020202020202</v>
+        <v>0.00452488687782805</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0143288084464555</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.990950226244344</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,46 +613,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00452488687782805</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.996983408748115</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00754147812971342</v>
       </c>
       <c r="E4">
-        <v>0.0101010101010101</v>
+        <v>0.0165912518853695</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00226244343891403</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00678733031674208</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00678733031674208</v>
       </c>
       <c r="J4">
-        <v>0.98989898989899</v>
+        <v>0.979638009049774</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.987933634992459</v>
       </c>
       <c r="L4">
-        <v>0.0101010101010101</v>
+        <v>0.0248868778280543</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00754147812971342</v>
       </c>
       <c r="N4">
-        <v>0.181818181818182</v>
+        <v>0.15158371040724</v>
       </c>
       <c r="O4">
-        <v>0.282828282828283</v>
+        <v>0.340874811463047</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0101010101010101</v>
+        <v>0.0535444947209653</v>
       </c>
       <c r="S4">
-        <v>0.97979797979798</v>
+        <v>0.989441930618401</v>
       </c>
       <c r="T4">
-        <v>0.97979797979798</v>
+        <v>0.975113122171946</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.982654600301659</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00904977375565611</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0101010101010101</v>
+        <v>0.0226244343891403</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0303030303030303</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="E5">
-        <v>0.98989898989899</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="G5">
-        <v>0.98989898989899</v>
+        <v>0.978129713423831</v>
       </c>
       <c r="H5">
-        <v>0.0101010101010101</v>
+        <v>0.0180995475113122</v>
       </c>
       <c r="I5">
-        <v>0.98989898989899</v>
+        <v>0.973604826546003</v>
       </c>
       <c r="J5">
-        <v>0.0101010101010101</v>
+        <v>0.0173453996983409</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L5">
-        <v>0.0101010101010101</v>
+        <v>0.0218702865761689</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.98868778280543</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00904977375565611</v>
       </c>
       <c r="Q5">
-        <v>0.97979797979798</v>
+        <v>0.995475113122172</v>
       </c>
       <c r="R5">
-        <v>0.0101010101010101</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00150829562594268</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000754147812971342</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00226244343891403</v>
       </c>
       <c r="W5">
-        <v>0.0101010101010101</v>
+        <v>0.0165912518853695</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00603318250377074</v>
       </c>
     </row>
   </sheetData>
